--- a/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T13:14:15+00:00</t>
+    <t>2025-07-24T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5176,7 +5176,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
 </t>
   </si>
   <si>
@@ -5558,6 +5558,10 @@
     <t>Patient.contact.name</t>
   </si>
   <si>
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -5781,10 +5785,6 @@
   </si>
   <si>
     <t>Profil de la ressource FrCorePatientProfile permettant de représenter un usager lorsque l'INS n'est pas transmis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
-</t>
   </si>
   <si>
     <t>Patient.birthDate.id</t>
@@ -7797,7 +7797,7 @@
         <v>2</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="239">
@@ -7821,7 +7821,7 @@
         <v>8</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="242">
@@ -7829,7 +7829,7 @@
         <v>10</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="243">
@@ -7883,7 +7883,7 @@
         <v>23</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="250">
@@ -65896,7 +65896,7 @@
         <v>85</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>820</v>
+        <v>1635</v>
       </c>
       <c r="M553" t="s" s="2">
         <v>1643</v>
@@ -66948,7 +66948,7 @@
         <v>85</v>
       </c>
       <c r="L563" t="s" s="2">
-        <v>820</v>
+        <v>1635</v>
       </c>
       <c r="M563" t="s" s="2">
         <v>1668</v>
@@ -69892,7 +69892,7 @@
         <v>78</v>
       </c>
       <c r="L591" t="s" s="2">
-        <v>1635</v>
+        <v>1758</v>
       </c>
       <c r="M591" t="s" s="2">
         <v>1276</v>
@@ -69904,7 +69904,7 @@
         <v>1278</v>
       </c>
       <c r="P591" t="s" s="2">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="Q591" t="s" s="2">
         <v>78</v>
@@ -69973,10 +69973,10 @@
         <v>1321</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -70008,7 +70008,7 @@
         <v>766</v>
       </c>
       <c r="O592" t="s" s="2">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="P592" t="s" s="2">
         <v>825</v>
@@ -70060,7 +70060,7 @@
         <v>78</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>76</v>
@@ -70080,10 +70080,10 @@
         <v>1321</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -70106,17 +70106,17 @@
         <v>78</v>
       </c>
       <c r="L593" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="N593" t="s" s="2">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="O593" s="2"/>
       <c r="P593" t="s" s="2">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Q593" t="s" s="2">
         <v>78</v>
@@ -70165,7 +70165,7 @@
         <v>78</v>
       </c>
       <c r="AG593" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="AH593" t="s" s="2">
         <v>76</v>
@@ -70185,10 +70185,10 @@
         <v>1321</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -70214,14 +70214,14 @@
         <v>104</v>
       </c>
       <c r="M594" t="s" s="2">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="N594" t="s" s="2">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="O594" s="2"/>
       <c r="P594" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="Q594" t="s" s="2">
         <v>78</v>
@@ -70249,10 +70249,10 @@
         <v>198</v>
       </c>
       <c r="Z594" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="AA594" t="s" s="2">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="AB594" t="s" s="2">
         <v>78</v>
@@ -70270,7 +70270,7 @@
         <v>78</v>
       </c>
       <c r="AG594" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="AH594" t="s" s="2">
         <v>76</v>
@@ -70290,10 +70290,10 @@
         <v>1321</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -70319,14 +70319,14 @@
         <v>237</v>
       </c>
       <c r="M595" t="s" s="2">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="N595" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="O595" s="2"/>
       <c r="P595" t="s" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="Q595" t="s" s="2">
         <v>78</v>
@@ -70375,7 +70375,7 @@
         <v>78</v>
       </c>
       <c r="AG595" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="AH595" t="s" s="2">
         <v>76</v>
@@ -70384,7 +70384,7 @@
         <v>84</v>
       </c>
       <c r="AJ595" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="AK595" t="s" s="2">
         <v>96</v>
@@ -70395,10 +70395,10 @@
         <v>1321</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -70424,10 +70424,10 @@
         <v>231</v>
       </c>
       <c r="M596" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="N596" t="s" s="2">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="O596" s="2"/>
       <c r="P596" s="2"/>
@@ -70478,7 +70478,7 @@
         <v>78</v>
       </c>
       <c r="AG596" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="AH596" t="s" s="2">
         <v>76</v>
@@ -70498,10 +70498,10 @@
         <v>1321</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -70527,16 +70527,16 @@
         <v>249</v>
       </c>
       <c r="M597" t="s" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N597" t="s" s="2">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="O597" t="s" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="P597" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="Q597" t="s" s="2">
         <v>78</v>
@@ -70585,7 +70585,7 @@
         <v>78</v>
       </c>
       <c r="AG597" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="AH597" t="s" s="2">
         <v>76</v>
@@ -70605,10 +70605,10 @@
         <v>1321</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -70708,10 +70708,10 @@
         <v>1321</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -70813,10 +70813,10 @@
         <v>1321</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -70920,10 +70920,10 @@
         <v>1321</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -70949,16 +70949,16 @@
         <v>204</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="O601" t="s" s="2">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="P601" t="s" s="2">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="Q601" t="s" s="2">
         <v>78</v>
@@ -71007,7 +71007,7 @@
         <v>78</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="AH601" t="s" s="2">
         <v>84</v>
@@ -71027,10 +71027,10 @@
         <v>1321</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -71056,16 +71056,16 @@
         <v>640</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="N602" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="O602" t="s" s="2">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="P602" t="s" s="2">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="Q602" t="s" s="2">
         <v>78</v>
@@ -71114,7 +71114,7 @@
         <v>78</v>
       </c>
       <c r="AG602" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>76</v>
@@ -71134,14 +71134,14 @@
         <v>1321</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="F603" s="2"/>
       <c r="G603" t="s" s="2">
@@ -71160,16 +71160,16 @@
         <v>78</v>
       </c>
       <c r="L603" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="M603" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="N603" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="O603" t="s" s="2">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="P603" s="2"/>
       <c r="Q603" t="s" s="2">
@@ -71219,7 +71219,7 @@
         <v>78</v>
       </c>
       <c r="AG603" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AH603" t="s" s="2">
         <v>76</v>
@@ -71239,10 +71239,10 @@
         <v>1321</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -71268,16 +71268,16 @@
         <v>778</v>
       </c>
       <c r="M604" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="N604" t="s" s="2">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="O604" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="P604" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="Q604" t="s" s="2">
         <v>78</v>
@@ -71326,7 +71326,7 @@
         <v>78</v>
       </c>
       <c r="AG604" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>76</v>
@@ -71346,10 +71346,10 @@
         <v>1321</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -71375,16 +71375,16 @@
         <v>249</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="N605" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="O605" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="P605" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="Q605" t="s" s="2">
         <v>78</v>
@@ -71433,7 +71433,7 @@
         <v>78</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>76</v>
@@ -71453,10 +71453,10 @@
         <v>1321</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -71556,10 +71556,10 @@
         <v>1321</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -71661,10 +71661,10 @@
         <v>1321</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -71768,10 +71768,10 @@
         <v>1321</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -71794,16 +71794,16 @@
         <v>85</v>
       </c>
       <c r="L609" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="N609" t="s" s="2">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="O609" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="P609" s="2"/>
       <c r="Q609" t="s" s="2">
@@ -71853,7 +71853,7 @@
         <v>78</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>84</v>
@@ -71873,10 +71873,10 @@
         <v>1321</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -71902,10 +71902,10 @@
         <v>104</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="O610" s="2"/>
       <c r="P610" s="2"/>
@@ -71935,10 +71935,10 @@
         <v>198</v>
       </c>
       <c r="Z610" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="AA610" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="AB610" t="s" s="2">
         <v>78</v>
@@ -71956,7 +71956,7 @@
         <v>78</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>84</v>
@@ -71973,7 +71973,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>1326</v>
@@ -72076,7 +72076,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>1332</v>
@@ -72181,7 +72181,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>1333</v>
@@ -72284,7 +72284,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>1334</v>
@@ -72387,7 +72387,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>1335</v>
@@ -72492,7 +72492,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>1336</v>
@@ -72597,7 +72597,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>1337</v>
@@ -72702,7 +72702,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>1338</v>
@@ -72807,7 +72807,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>1339</v>
@@ -72912,7 +72912,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>1340</v>
@@ -73019,7 +73019,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>1345</v>
@@ -73124,7 +73124,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B622" t="s" s="2">
         <v>1346</v>
@@ -73229,7 +73229,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B623" t="s" s="2">
         <v>1347</v>
@@ -73334,7 +73334,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B624" t="s" s="2">
         <v>1348</v>
@@ -73439,7 +73439,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>1349</v>
@@ -73544,7 +73544,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>1350</v>
@@ -73649,7 +73649,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>1351</v>
@@ -73750,7 +73750,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>1353</v>
@@ -73855,7 +73855,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B629" t="s" s="2">
         <v>1358</v>
@@ -73960,7 +73960,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B630" t="s" s="2">
         <v>1363</v>
@@ -74065,7 +74065,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B631" t="s" s="2">
         <v>1368</v>
@@ -74170,7 +74170,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B632" t="s" s="2">
         <v>1372</v>
@@ -74275,7 +74275,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B633" t="s" s="2">
         <v>1377</v>
@@ -74378,7 +74378,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B634" t="s" s="2">
         <v>1379</v>
@@ -74481,7 +74481,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B635" t="s" s="2">
         <v>1381</v>
@@ -74586,7 +74586,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B636" t="s" s="2">
         <v>1384</v>
@@ -74691,7 +74691,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B637" t="s" s="2">
         <v>1481</v>
@@ -74798,7 +74798,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>1482</v>
@@ -74903,7 +74903,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B639" t="s" s="2">
         <v>1488</v>
@@ -75010,7 +75010,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B640" t="s" s="2">
         <v>1491</v>
@@ -75113,7 +75113,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B641" t="s" s="2">
         <v>1493</v>
@@ -75218,7 +75218,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B642" t="s" s="2">
         <v>1495</v>
@@ -75325,7 +75325,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B643" t="s" s="2">
         <v>1497</v>
@@ -75432,7 +75432,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B644" t="s" s="2">
         <v>1500</v>
@@ -75539,7 +75539,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B645" t="s" s="2">
         <v>1503</v>
@@ -75644,7 +75644,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>1505</v>
@@ -75747,7 +75747,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B647" t="s" s="2">
         <v>1507</v>
@@ -75852,7 +75852,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B648" t="s" s="2">
         <v>1509</v>
@@ -75959,7 +75959,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B649" t="s" s="2">
         <v>1512</v>
@@ -76062,7 +76062,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B650" t="s" s="2">
         <v>1513</v>
@@ -76167,7 +76167,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>1514</v>
@@ -76274,7 +76274,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B652" t="s" s="2">
         <v>1516</v>
@@ -76381,7 +76381,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B653" t="s" s="2">
         <v>1518</v>
@@ -76488,7 +76488,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B654" t="s" s="2">
         <v>1520</v>
@@ -76593,7 +76593,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B655" t="s" s="2">
         <v>1521</v>
@@ -76696,7 +76696,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>1522</v>
@@ -76801,7 +76801,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>1523</v>
@@ -76908,7 +76908,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>1526</v>
@@ -77011,7 +77011,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>1527</v>
@@ -77116,7 +77116,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>1528</v>
@@ -77223,7 +77223,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>1529</v>
@@ -77330,7 +77330,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>1531</v>
@@ -77437,7 +77437,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>1533</v>
@@ -77542,7 +77542,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>1534</v>
@@ -77645,7 +77645,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>1535</v>
@@ -77750,7 +77750,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>1536</v>
@@ -77857,7 +77857,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>1539</v>
@@ -77960,7 +77960,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>1540</v>
@@ -78065,7 +78065,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>1541</v>
@@ -78172,7 +78172,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>1543</v>
@@ -78279,7 +78279,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>1545</v>
@@ -78386,7 +78386,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>1546</v>
@@ -78491,7 +78491,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>1547</v>
@@ -78594,7 +78594,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>1548</v>
@@ -78699,7 +78699,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>1549</v>
@@ -78806,7 +78806,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>1552</v>
@@ -78909,7 +78909,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>1553</v>
@@ -79014,7 +79014,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>1554</v>
@@ -79121,7 +79121,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>1555</v>
@@ -79228,7 +79228,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>1557</v>
@@ -79335,7 +79335,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>1558</v>
@@ -79440,7 +79440,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>1559</v>
@@ -79543,7 +79543,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>1560</v>
@@ -79648,7 +79648,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>1617</v>
@@ -79755,7 +79755,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>1620</v>
@@ -79858,7 +79858,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>1621</v>
@@ -79963,7 +79963,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>1622</v>
@@ -80070,7 +80070,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>1623</v>
@@ -80177,7 +80177,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>1625</v>
@@ -80284,7 +80284,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>1626</v>
@@ -80389,7 +80389,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>1627</v>
@@ -80492,7 +80492,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>1628</v>
@@ -80597,7 +80597,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>1629</v>
@@ -80706,7 +80706,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>1634</v>
@@ -80735,7 +80735,7 @@
         <v>85</v>
       </c>
       <c r="L694" t="s" s="2">
-        <v>1830</v>
+        <v>1635</v>
       </c>
       <c r="M694" t="s" s="2">
         <v>1636</v>
@@ -80811,7 +80811,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>1641</v>
@@ -80842,7 +80842,7 @@
         <v>85</v>
       </c>
       <c r="L695" t="s" s="2">
-        <v>1830</v>
+        <v>1635</v>
       </c>
       <c r="M695" t="s" s="2">
         <v>1643</v>
@@ -80920,7 +80920,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>1645</v>
@@ -81023,7 +81023,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>1647</v>
@@ -81128,7 +81128,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>1649</v>
@@ -81235,7 +81235,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>1653</v>
@@ -81342,7 +81342,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>1655</v>
@@ -81447,7 +81447,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>1657</v>
@@ -81552,7 +81552,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>1659</v>
@@ -81655,7 +81655,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B703" t="s" s="2">
         <v>1661</v>
@@ -81758,7 +81758,7 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B704" t="s" s="2">
         <v>1664</v>
@@ -81863,7 +81863,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B705" t="s" s="2">
         <v>1666</v>
@@ -81894,7 +81894,7 @@
         <v>85</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>1830</v>
+        <v>1635</v>
       </c>
       <c r="M705" t="s" s="2">
         <v>1668</v>
@@ -81972,7 +81972,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B706" t="s" s="2">
         <v>1670</v>
@@ -82075,7 +82075,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B707" t="s" s="2">
         <v>1671</v>
@@ -82180,7 +82180,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B708" t="s" s="2">
         <v>1672</v>
@@ -82285,7 +82285,7 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B709" t="s" s="2">
         <v>1677</v>
@@ -82392,7 +82392,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>1678</v>
@@ -82499,7 +82499,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>1679</v>
@@ -82604,7 +82604,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>1680</v>
@@ -82709,7 +82709,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>1682</v>
@@ -82812,7 +82812,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>1683</v>
@@ -82915,7 +82915,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>1684</v>
@@ -83020,7 +83020,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>1685</v>
@@ -83127,7 +83127,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>1687</v>
@@ -83232,7 +83232,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>1693</v>
@@ -83339,7 +83339,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>1831</v>
@@ -83442,7 +83442,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>1834</v>
@@ -83543,7 +83543,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>1835</v>
@@ -83648,7 +83648,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>1838</v>
@@ -83751,7 +83751,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>1699</v>
@@ -83858,7 +83858,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>1705</v>
@@ -83965,7 +83965,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>1707</v>
@@ -84068,7 +84068,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>1712</v>
@@ -84175,7 +84175,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>1718</v>
@@ -84282,7 +84282,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>1723</v>
@@ -84389,7 +84389,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B729" t="s" s="2">
         <v>1729</v>
@@ -84492,7 +84492,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B730" t="s" s="2">
         <v>1730</v>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B731" t="s" s="2">
         <v>1731</v>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B732" t="s" s="2">
         <v>1736</v>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B733" t="s" s="2">
         <v>1741</v>
@@ -84910,7 +84910,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B734" t="s" s="2">
         <v>1742</v>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B735" t="s" s="2">
         <v>1749</v>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B736" t="s" s="2">
         <v>1753</v>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B737" t="s" s="2">
         <v>1757</v>
@@ -85252,7 +85252,7 @@
         <v>78</v>
       </c>
       <c r="L737" t="s" s="2">
-        <v>1635</v>
+        <v>1758</v>
       </c>
       <c r="M737" t="s" s="2">
         <v>1276</v>
@@ -85264,7 +85264,7 @@
         <v>1278</v>
       </c>
       <c r="P737" t="s" s="2">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="Q737" t="s" s="2">
         <v>78</v>
@@ -85330,13 +85330,13 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C738" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D738" s="2"/>
       <c r="E738" t="s" s="2">
@@ -85368,7 +85368,7 @@
         <v>766</v>
       </c>
       <c r="O738" t="s" s="2">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="P738" t="s" s="2">
         <v>825</v>
@@ -85420,7 +85420,7 @@
         <v>78</v>
       </c>
       <c r="AG738" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="AH738" t="s" s="2">
         <v>76</v>
@@ -85437,13 +85437,13 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B739" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C739" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D739" s="2"/>
       <c r="E739" t="s" s="2">
@@ -85466,17 +85466,17 @@
         <v>78</v>
       </c>
       <c r="L739" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="M739" t="s" s="2">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="N739" t="s" s="2">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="O739" s="2"/>
       <c r="P739" t="s" s="2">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Q739" t="s" s="2">
         <v>78</v>
@@ -85525,7 +85525,7 @@
         <v>78</v>
       </c>
       <c r="AG739" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="AH739" t="s" s="2">
         <v>76</v>
@@ -85542,13 +85542,13 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B740" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C740" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D740" s="2"/>
       <c r="E740" t="s" s="2">
@@ -85574,14 +85574,14 @@
         <v>104</v>
       </c>
       <c r="M740" t="s" s="2">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="N740" t="s" s="2">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="O740" s="2"/>
       <c r="P740" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="Q740" t="s" s="2">
         <v>78</v>
@@ -85609,10 +85609,10 @@
         <v>198</v>
       </c>
       <c r="Z740" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="AA740" t="s" s="2">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="AB740" t="s" s="2">
         <v>78</v>
@@ -85630,7 +85630,7 @@
         <v>78</v>
       </c>
       <c r="AG740" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="AH740" t="s" s="2">
         <v>76</v>
@@ -85647,13 +85647,13 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B741" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C741" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D741" s="2"/>
       <c r="E741" t="s" s="2">
@@ -85679,14 +85679,14 @@
         <v>237</v>
       </c>
       <c r="M741" t="s" s="2">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="N741" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="O741" s="2"/>
       <c r="P741" t="s" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="Q741" t="s" s="2">
         <v>78</v>
@@ -85735,7 +85735,7 @@
         <v>78</v>
       </c>
       <c r="AG741" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="AH741" t="s" s="2">
         <v>76</v>
@@ -85744,7 +85744,7 @@
         <v>84</v>
       </c>
       <c r="AJ741" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="AK741" t="s" s="2">
         <v>96</v>
@@ -85752,13 +85752,13 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B742" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C742" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D742" s="2"/>
       <c r="E742" t="s" s="2">
@@ -85784,10 +85784,10 @@
         <v>231</v>
       </c>
       <c r="M742" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="N742" t="s" s="2">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="O742" s="2"/>
       <c r="P742" s="2"/>
@@ -85838,7 +85838,7 @@
         <v>78</v>
       </c>
       <c r="AG742" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="AH742" t="s" s="2">
         <v>76</v>
@@ -85855,13 +85855,13 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B743" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C743" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D743" s="2"/>
       <c r="E743" t="s" s="2">
@@ -85887,16 +85887,16 @@
         <v>249</v>
       </c>
       <c r="M743" t="s" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N743" t="s" s="2">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="O743" t="s" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="P743" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="Q743" t="s" s="2">
         <v>78</v>
@@ -85945,7 +85945,7 @@
         <v>78</v>
       </c>
       <c r="AG743" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="AH743" t="s" s="2">
         <v>76</v>
@@ -85962,13 +85962,13 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B744" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C744" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D744" s="2"/>
       <c r="E744" t="s" s="2">
@@ -86065,13 +86065,13 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B745" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C745" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D745" s="2"/>
       <c r="E745" t="s" s="2">
@@ -86170,13 +86170,13 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B746" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C746" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D746" s="2"/>
       <c r="E746" t="s" s="2">
@@ -86277,13 +86277,13 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B747" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C747" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D747" s="2"/>
       <c r="E747" t="s" s="2">
@@ -86309,16 +86309,16 @@
         <v>204</v>
       </c>
       <c r="M747" t="s" s="2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="N747" t="s" s="2">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="O747" t="s" s="2">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="P747" t="s" s="2">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="Q747" t="s" s="2">
         <v>78</v>
@@ -86367,7 +86367,7 @@
         <v>78</v>
       </c>
       <c r="AG747" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="AH747" t="s" s="2">
         <v>84</v>
@@ -86384,13 +86384,13 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B748" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C748" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D748" s="2"/>
       <c r="E748" t="s" s="2">
@@ -86416,16 +86416,16 @@
         <v>640</v>
       </c>
       <c r="M748" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="N748" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="O748" t="s" s="2">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="P748" t="s" s="2">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="Q748" t="s" s="2">
         <v>78</v>
@@ -86474,7 +86474,7 @@
         <v>78</v>
       </c>
       <c r="AG748" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="AH748" t="s" s="2">
         <v>76</v>
@@ -86491,17 +86491,17 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B749" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C749" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D749" s="2"/>
       <c r="E749" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="F749" s="2"/>
       <c r="G749" t="s" s="2">
@@ -86520,16 +86520,16 @@
         <v>78</v>
       </c>
       <c r="L749" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="M749" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="N749" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="O749" t="s" s="2">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="P749" s="2"/>
       <c r="Q749" t="s" s="2">
@@ -86579,7 +86579,7 @@
         <v>78</v>
       </c>
       <c r="AG749" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AH749" t="s" s="2">
         <v>76</v>
@@ -86596,13 +86596,13 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B750" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C750" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D750" s="2"/>
       <c r="E750" t="s" s="2">
@@ -86628,16 +86628,16 @@
         <v>778</v>
       </c>
       <c r="M750" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="N750" t="s" s="2">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="O750" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="P750" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="Q750" t="s" s="2">
         <v>78</v>
@@ -86686,7 +86686,7 @@
         <v>78</v>
       </c>
       <c r="AG750" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="AH750" t="s" s="2">
         <v>76</v>
@@ -86703,13 +86703,13 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B751" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C751" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D751" s="2"/>
       <c r="E751" t="s" s="2">
@@ -86735,16 +86735,16 @@
         <v>249</v>
       </c>
       <c r="M751" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="N751" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="O751" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="P751" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="Q751" t="s" s="2">
         <v>78</v>
@@ -86793,7 +86793,7 @@
         <v>78</v>
       </c>
       <c r="AG751" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="AH751" t="s" s="2">
         <v>76</v>
@@ -86810,13 +86810,13 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B752" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C752" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D752" s="2"/>
       <c r="E752" t="s" s="2">
@@ -86913,13 +86913,13 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C753" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D753" s="2"/>
       <c r="E753" t="s" s="2">
@@ -87018,13 +87018,13 @@
     </row>
     <row r="754">
       <c r="A754" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B754" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C754" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D754" s="2"/>
       <c r="E754" t="s" s="2">
@@ -87125,13 +87125,13 @@
     </row>
     <row r="755">
       <c r="A755" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B755" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C755" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D755" s="2"/>
       <c r="E755" t="s" s="2">
@@ -87154,16 +87154,16 @@
         <v>85</v>
       </c>
       <c r="L755" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="M755" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="N755" t="s" s="2">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="O755" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="P755" s="2"/>
       <c r="Q755" t="s" s="2">
@@ -87213,7 +87213,7 @@
         <v>78</v>
       </c>
       <c r="AG755" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="AH755" t="s" s="2">
         <v>84</v>
@@ -87230,13 +87230,13 @@
     </row>
     <row r="756">
       <c r="A756" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B756" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C756" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D756" s="2"/>
       <c r="E756" t="s" s="2">
@@ -87262,10 +87262,10 @@
         <v>104</v>
       </c>
       <c r="M756" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="N756" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="O756" s="2"/>
       <c r="P756" s="2"/>
@@ -87295,10 +87295,10 @@
         <v>198</v>
       </c>
       <c r="Z756" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="AA756" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="AB756" t="s" s="2">
         <v>78</v>
@@ -87316,7 +87316,7 @@
         <v>78</v>
       </c>
       <c r="AG756" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="AH756" t="s" s="2">
         <v>84</v>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
@@ -48,7 +48,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TDDUI Encounter</t>
+    <t>TDDUI Encounter Sejour</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T09:40:01+00:00</t>
+    <t>2025-07-24T14:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5113,25 +5113,25 @@
     <t>Patient.identifier:INS-NIA.assigner</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber</t>
-  </si>
-  <si>
-    <t>initialNumber</t>
+    <t>Patient.identifier:InitialNumbeMDPH</t>
+  </si>
+  <si>
+    <t>InitialNumbeMDPH</t>
   </si>
   <si>
     <t>Numéro de l’individu attribué par la MDPH ayant créé le dossier Individu (= MDPH initiale).</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.type</t>
+    <t>Patient.identifier:InitialNumbeMDPH.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -5143,16 +5143,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Patient.identifier:initialNumber.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:initialNumber.assigner</t>
+    <t>Patient.identifier:InitialNumbeMDPH.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:InitialNumbeMDPH.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T06:57:33+00:00</t>
+    <t>2025-07-28T14:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2696,7 +2696,7 @@
     <t>Ordre d’enregistrement de la naissance dans le registre d’état civil de la commune de naissance pour le mois de la naissance. Il compose les 3 derniers chiffres du NIR de l'usager avant la clé de sécurité et permet de distinguer les personnes nées au même lieu et à la même période. Il est obligatoire si le NIR n'est pas transmis.</t>
   </si>
   <si>
-    <t>element:Patient</t>
+    <t>element:Patient.birthDate</t>
   </si>
   <si>
     <t>tddui-bundle</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:46:36+00:00</t>
+    <t>2025-07-28T15:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -59022,7 +59022,7 @@
         <v>76</v>
       </c>
       <c r="H488" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I488" t="s" s="2">
         <v>78</v>
@@ -77764,7 +77764,7 @@
         <v>76</v>
       </c>
       <c r="H666" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I666" t="s" s="2">
         <v>78</v>
